--- a/excels/lite/RegionDF.xlsx
+++ b/excels/lite/RegionDF.xlsx
@@ -16,25 +16,25 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t xml:space="preserve"> Epirus (region), Greece</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Western Macedonia, Greece</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Crete, Greece</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Central Macedonia, Greece</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Attica (region), Greece</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thessaly, Greece</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Western Greece, Greece</t>
+    <t>Central Macedonia, Greece</t>
+  </si>
+  <si>
+    <t>Attica (region), Greece</t>
+  </si>
+  <si>
+    <t>Thessaly, Greece</t>
+  </si>
+  <si>
+    <t>Epirus (region), Greece</t>
+  </si>
+  <si>
+    <t>Western Greece, Greece</t>
+  </si>
+  <si>
+    <t>Crete, Greece</t>
+  </si>
+  <si>
+    <t>Southern Aegean, Greece</t>
   </si>
 </sst>
 </file>
@@ -408,7 +408,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>91.41666666666667</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -416,7 +416,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>69.16666666666667</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -424,7 +424,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.272727272727272</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -432,7 +432,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>81</v>
+        <v>12.91666666666667</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -440,7 +440,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>56.63636363636363</v>
+        <v>12.25</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -448,7 +448,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>9.083333333333334</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -456,7 +456,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>8.75</v>
       </c>
     </row>
   </sheetData>

--- a/excels/lite/RegionDF.xlsx
+++ b/excels/lite/RegionDF.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="23913"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Central Macedonia, Greece</t>
   </si>
@@ -35,13 +40,19 @@
   </si>
   <si>
     <t>Southern Aegean, Greece</t>
+  </si>
+  <si>
+    <t>Regions</t>
+  </si>
+  <si>
+    <t>Fans</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -391,16 +402,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="B1" s="1">
-        <v>0</v>
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -408,7 +422,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>91.41666666666667</v>
+        <v>91.416666666666671</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -416,7 +430,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>69.16666666666667</v>
+        <v>69.166666666666671</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -448,7 +462,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.083333333333334</v>
+        <v>9.0833333333333339</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -461,5 +475,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/excels/lite/RegionDF.xlsx
+++ b/excels/lite/RegionDF.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="23913"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="27180" windowHeight="9820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -405,9 +405,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="27.625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">

--- a/excels/lite/RegionDF.xlsx
+++ b/excels/lite/RegionDF.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="23913"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="27180" windowHeight="9820"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9660" windowWidth="16095" xWindow="240" yWindow="15"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+  <si>
+    <t>Regions</t>
+  </si>
+  <si>
+    <t>Fans</t>
+  </si>
   <si>
     <t>Central Macedonia, Greece</t>
   </si>
@@ -30,48 +31,43 @@
     <t>Thessaly, Greece</t>
   </si>
   <si>
+    <t>Western Greece, Greece</t>
+  </si>
+  <si>
     <t>Epirus (region), Greece</t>
   </si>
   <si>
-    <t>Western Greece, Greece</t>
-  </si>
-  <si>
     <t>Crete, Greece</t>
   </si>
   <si>
-    <t>Southern Aegean, Greece</t>
-  </si>
-  <si>
-    <t>Regions</t>
-  </si>
-  <si>
-    <t>Fans</t>
+    <t>Eastern Macedonia and Thrace, Greece</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -102,19 +98,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -402,88 +397,84 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="27.625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>91.416666666666671</v>
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>92.57894736842105</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>69.166666666666671</v>
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>73.73684210526316</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>15</v>
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>15.05263157894737</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>12.91666666666667</v>
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>13.10526315789474</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>12.25</v>
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>12.78947368421053</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>9.0833333333333339</v>
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>9.052631578947368</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>8.75</v>
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>8.315789473684211</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/excels/lite/RegionDF.xlsx
+++ b/excels/lite/RegionDF.xlsx
@@ -423,7 +423,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>92.57894736842105</v>
+        <v>93.1875</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -431,7 +431,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>73.73684210526316</v>
+        <v>76.84375</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -439,7 +439,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>15.05263157894737</v>
+        <v>15.09375</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -447,7 +447,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>13.10526315789474</v>
+        <v>13.71875</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -455,7 +455,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>12.78947368421053</v>
+        <v>12.6875</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -463,7 +463,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>9.052631578947368</v>
+        <v>9.09375</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -471,7 +471,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>8.315789473684211</v>
+        <v>9.09375</v>
       </c>
     </row>
   </sheetData>

--- a/excels/lite/RegionDF.xlsx
+++ b/excels/lite/RegionDF.xlsx
@@ -37,10 +37,10 @@
     <t>Epirus (region), Greece</t>
   </si>
   <si>
+    <t>Eastern Macedonia and Thrace, Greece</t>
+  </si>
+  <si>
     <t>Crete, Greece</t>
-  </si>
-  <si>
-    <t>Eastern Macedonia and Thrace, Greece</t>
   </si>
 </sst>
 </file>
@@ -423,7 +423,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>93.1875</v>
+        <v>93.21212121212122</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -431,7 +431,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>76.84375</v>
+        <v>77.06060606060606</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -439,7 +439,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>15.09375</v>
+        <v>15.06060606060606</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -447,7 +447,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>13.71875</v>
+        <v>13.72727272727273</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -455,7 +455,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>12.6875</v>
+        <v>12.6969696969697</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -463,7 +463,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>9.09375</v>
+        <v>9.121212121212121</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -471,7 +471,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>9.09375</v>
+        <v>9.090909090909092</v>
       </c>
     </row>
   </sheetData>

--- a/excels/lite/RegionDF.xlsx
+++ b/excels/lite/RegionDF.xlsx
@@ -423,7 +423,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>93.21212121212122</v>
+        <v>93.23529411764706</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -431,7 +431,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>77.06060606060606</v>
+        <v>77.23529411764706</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -439,7 +439,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>15.06060606060606</v>
+        <v>15.05882352941176</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -447,7 +447,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>13.72727272727273</v>
+        <v>13.73529411764706</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -455,7 +455,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>12.6969696969697</v>
+        <v>12.70588235294118</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -463,7 +463,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>9.121212121212121</v>
+        <v>9.147058823529411</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -471,7 +471,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>9.090909090909092</v>
+        <v>9.088235294117647</v>
       </c>
     </row>
   </sheetData>

--- a/excels/lite/RegionDF.xlsx
+++ b/excels/lite/RegionDF.xlsx
@@ -423,7 +423,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>93.23529411764706</v>
+        <v>93.25714285714285</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -431,7 +431,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>77.23529411764706</v>
+        <v>77.37142857142857</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -439,7 +439,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>15.05882352941176</v>
+        <v>15.05714285714286</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -447,7 +447,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>13.73529411764706</v>
+        <v>13.74285714285714</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -455,7 +455,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>12.70588235294118</v>
+        <v>12.74285714285714</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -463,7 +463,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>9.147058823529411</v>
+        <v>9.171428571428571</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -471,7 +471,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>9.088235294117647</v>
+        <v>9.057142857142857</v>
       </c>
     </row>
   </sheetData>

--- a/excels/lite/RegionDF.xlsx
+++ b/excels/lite/RegionDF.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9660" windowWidth="16095" xWindow="240" yWindow="15"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="23500" windowHeight="11780"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Regions</t>
   </si>
@@ -46,28 +51,27 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -98,18 +102,25 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -397,21 +408,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C7" sqref="C7:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="21.625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -419,62 +429,67 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="n">
-        <v>93.25714285714285</v>
+      <c r="B2">
+        <v>93.222222222222229</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="n">
-        <v>77.37142857142857</v>
+      <c r="B3">
+        <v>77.555555555555557</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="n">
-        <v>15.05714285714286</v>
+      <c r="B4">
+        <v>15.02777777777778</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="n">
-        <v>13.74285714285714</v>
+      <c r="B5">
+        <v>13.72222222222222</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="n">
-        <v>12.74285714285714</v>
+      <c r="B6">
+        <v>12.72222222222222</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="n">
-        <v>9.171428571428571</v>
+      <c r="B7">
+        <v>9.2222222222222214</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="n">
-        <v>9.057142857142857</v>
+      <c r="B8">
+        <v>9.0833333333333339</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/excels/lite/RegionDF.xlsx
+++ b/excels/lite/RegionDF.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="23500" windowHeight="11780"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9660" windowWidth="16095" xWindow="240" yWindow="15"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
   <si>
     <t>Regions</t>
   </si>
@@ -51,27 +46,28 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -102,25 +98,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -408,20 +397,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C8"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="21.625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -429,67 +419,62 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>93.222222222222229</v>
+      <c r="B2" t="n">
+        <v>93.24324324324324</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>77.555555555555557</v>
+      <c r="B3" t="n">
+        <v>77.75675675675676</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>15.02777777777778</v>
+      <c r="B4" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>13.72222222222222</v>
+      <c r="B5" t="n">
+        <v>13.72972972972973</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>12.72222222222222</v>
+      <c r="B6" t="n">
+        <v>12.72972972972973</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
-        <v>9.2222222222222214</v>
+      <c r="B7" t="n">
+        <v>9.27027027027027</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
-        <v>9.0833333333333339</v>
+      <c r="B8" t="n">
+        <v>9.108108108108109</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/excels/lite/RegionDF.xlsx
+++ b/excels/lite/RegionDF.xlsx
@@ -423,7 +423,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>93.24324324324324</v>
+        <v>93.26315789473684</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -431,7 +431,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>77.75675675675676</v>
+        <v>77.89473684210526</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -447,7 +447,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>13.72972972972973</v>
+        <v>13.78947368421053</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -455,7 +455,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>12.72972972972973</v>
+        <v>12.71052631578947</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -463,7 +463,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>9.27027027027027</v>
+        <v>9.315789473684211</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -471,7 +471,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>9.108108108108109</v>
+        <v>9.131578947368421</v>
       </c>
     </row>
   </sheetData>

--- a/excels/lite/RegionDF.xlsx
+++ b/excels/lite/RegionDF.xlsx
@@ -423,7 +423,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>93.26315789473684</v>
+        <v>93.25641025641026</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -431,7 +431,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>77.89473684210526</v>
+        <v>77.94871794871794</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -439,7 +439,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>15.05128205128205</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -447,7 +447,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>13.78947368421053</v>
+        <v>13.84615384615385</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -455,7 +455,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>12.71052631578947</v>
+        <v>12.69230769230769</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -463,7 +463,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>9.315789473684211</v>
+        <v>9.358974358974359</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -471,7 +471,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>9.131578947368421</v>
+        <v>9.179487179487179</v>
       </c>
     </row>
   </sheetData>

--- a/excels/lite/RegionDF.xlsx
+++ b/excels/lite/RegionDF.xlsx
@@ -423,7 +423,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>93.26315789473684</v>
+        <v>93.23076923076923</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -431,7 +431,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>77.89473684210526</v>
+        <v>77.94871794871794</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -447,7 +447,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>13.78947368421053</v>
+        <v>13.87179487179487</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -455,7 +455,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>12.71052631578947</v>
+        <v>12.71794871794872</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -463,7 +463,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>9.315789473684211</v>
+        <v>9.358974358974359</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -471,7 +471,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>9.131578947368421</v>
+        <v>9.153846153846153</v>
       </c>
     </row>
   </sheetData>

--- a/excels/lite/RegionDF.xlsx
+++ b/excels/lite/RegionDF.xlsx
@@ -423,7 +423,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>93.25641025641026</v>
+        <v>93.23076923076923</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -439,7 +439,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>15.05128205128205</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -447,7 +447,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>13.84615384615385</v>
+        <v>13.87179487179487</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -455,7 +455,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>12.69230769230769</v>
+        <v>12.71794871794872</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -471,7 +471,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>9.179487179487179</v>
+        <v>9.153846153846153</v>
       </c>
     </row>
   </sheetData>

--- a/excels/lite/RegionDF.xlsx
+++ b/excels/lite/RegionDF.xlsx
@@ -423,7 +423,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>93.23076923076923</v>
+        <v>94.06976744186046</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -431,7 +431,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>77.94871794871794</v>
+        <v>79.27906976744185</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -439,7 +439,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>15.62790697674419</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -447,7 +447,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>13.87179487179487</v>
+        <v>14.30232558139535</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -455,7 +455,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>12.71794871794872</v>
+        <v>12.76744186046512</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -463,7 +463,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>9.358974358974359</v>
+        <v>9.86046511627907</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -471,7 +471,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>9.153846153846153</v>
+        <v>9.44186046511628</v>
       </c>
     </row>
   </sheetData>

--- a/excels/lite/RegionDF.xlsx
+++ b/excels/lite/RegionDF.xlsx
@@ -11,38 +11,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
-  <si>
-    <t>Regions</t>
-  </si>
-  <si>
-    <t>Fans</t>
-  </si>
-  <si>
-    <t>Central Macedonia, Greece</t>
-  </si>
-  <si>
-    <t>Attica (region), Greece</t>
-  </si>
-  <si>
-    <t>Thessaly, Greece</t>
-  </si>
-  <si>
-    <t>Western Greece, Greece</t>
-  </si>
-  <si>
-    <t>Epirus (region), Greece</t>
-  </si>
-  <si>
-    <t>Eastern Macedonia and Thrace, Greece</t>
-  </si>
-  <si>
-    <t>Crete, Greece</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -410,68 +378,86 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Regions</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Fans</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Central Macedonia, Greece</t>
+        </is>
       </c>
       <c r="B2" t="n">
-        <v>94.06976744186046</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>94.43181818181819</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Attica (region), Greece</t>
+        </is>
       </c>
       <c r="B3" t="n">
-        <v>79.27906976744185</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>79.90909090909091</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Thessaly, Greece</t>
+        </is>
       </c>
       <c r="B4" t="n">
-        <v>15.62790697674419</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>15.86363636363636</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Western Greece, Greece</t>
+        </is>
       </c>
       <c r="B5" t="n">
-        <v>14.30232558139535</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>14.47727272727273</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Epirus (region), Greece</t>
+        </is>
       </c>
       <c r="B6" t="n">
-        <v>12.76744186046512</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>12.81818181818182</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Eastern Macedonia and Thrace, Greece</t>
+        </is>
       </c>
       <c r="B7" t="n">
-        <v>9.86046511627907</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>10.06818181818182</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Crete, Greece</t>
+        </is>
       </c>
       <c r="B8" t="n">
-        <v>9.44186046511628</v>
+        <v>9.5</v>
       </c>
     </row>
   </sheetData>

--- a/excels/lite/RegionDF.xlsx
+++ b/excels/lite/RegionDF.xlsx
@@ -11,6 +11,38 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+  <si>
+    <t>Regions</t>
+  </si>
+  <si>
+    <t>Fans</t>
+  </si>
+  <si>
+    <t>Central Macedonia, Greece</t>
+  </si>
+  <si>
+    <t>Attica (region), Greece</t>
+  </si>
+  <si>
+    <t>Thessaly, Greece</t>
+  </si>
+  <si>
+    <t>Western Greece, Greece</t>
+  </si>
+  <si>
+    <t>Epirus (region), Greece</t>
+  </si>
+  <si>
+    <t>Eastern Macedonia and Thrace, Greece</t>
+  </si>
+  <si>
+    <t>Crete, Greece</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -378,86 +410,68 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Regions</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Fans</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Central Macedonia, Greece</t>
-        </is>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>94.43181818181819</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Attica (region), Greece</t>
-        </is>
+        <v>94.77777777777777</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>79.90909090909091</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Thessaly, Greece</t>
-        </is>
+        <v>80.55555555555556</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>15.86363636363636</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Western Greece, Greece</t>
-        </is>
+        <v>16.08888888888889</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>14.47727272727273</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Epirus (region), Greece</t>
-        </is>
+        <v>14.66666666666667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>12.81818181818182</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Eastern Macedonia and Thrace, Greece</t>
-        </is>
+        <v>12.86666666666667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>10.06818181818182</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Crete, Greece</t>
-        </is>
+        <v>10.26666666666667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>9.5</v>
+        <v>9.555555555555555</v>
       </c>
     </row>
   </sheetData>

--- a/excels/lite/RegionDF.xlsx
+++ b/excels/lite/RegionDF.xlsx
@@ -11,38 +11,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
-  <si>
-    <t>Regions</t>
-  </si>
-  <si>
-    <t>Fans</t>
-  </si>
-  <si>
-    <t>Central Macedonia, Greece</t>
-  </si>
-  <si>
-    <t>Attica (region), Greece</t>
-  </si>
-  <si>
-    <t>Thessaly, Greece</t>
-  </si>
-  <si>
-    <t>Western Greece, Greece</t>
-  </si>
-  <si>
-    <t>Epirus (region), Greece</t>
-  </si>
-  <si>
-    <t>Eastern Macedonia and Thrace, Greece</t>
-  </si>
-  <si>
-    <t>Crete, Greece</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -410,68 +378,86 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Regions</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Fans</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Central Macedonia, Greece</t>
+        </is>
       </c>
       <c r="B2" t="n">
-        <v>94.77777777777777</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>95.06521739130434</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Attica (region), Greece</t>
+        </is>
       </c>
       <c r="B3" t="n">
-        <v>80.55555555555556</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>81.21739130434783</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Thessaly, Greece</t>
+        </is>
       </c>
       <c r="B4" t="n">
-        <v>16.08888888888889</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>16.32608695652174</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Western Greece, Greece</t>
+        </is>
       </c>
       <c r="B5" t="n">
-        <v>14.66666666666667</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>14.80434782608696</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Epirus (region), Greece</t>
+        </is>
       </c>
       <c r="B6" t="n">
-        <v>12.86666666666667</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>12.93478260869565</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Eastern Macedonia and Thrace, Greece</t>
+        </is>
       </c>
       <c r="B7" t="n">
-        <v>10.26666666666667</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>10.45652173913044</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Crete, Greece</t>
+        </is>
       </c>
       <c r="B8" t="n">
-        <v>9.555555555555555</v>
+        <v>9.652173913043478</v>
       </c>
     </row>
   </sheetData>

--- a/excels/lite/RegionDF.xlsx
+++ b/excels/lite/RegionDF.xlsx
@@ -397,7 +397,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>95.06521739130434</v>
+        <v>95.60416666666667</v>
       </c>
     </row>
     <row r="3">
@@ -407,7 +407,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>81.21739130434783</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="4">
@@ -417,7 +417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.32608695652174</v>
+        <v>16.77083333333333</v>
       </c>
     </row>
     <row r="5">
@@ -427,7 +427,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>14.80434782608696</v>
+        <v>15.04166666666667</v>
       </c>
     </row>
     <row r="6">
@@ -437,7 +437,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12.93478260869565</v>
+        <v>13.0625</v>
       </c>
     </row>
     <row r="7">
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.45652173913044</v>
+        <v>10.8125</v>
       </c>
     </row>
     <row r="8">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.652173913043478</v>
+        <v>9.833333333333334</v>
       </c>
     </row>
   </sheetData>

--- a/excels/lite/RegionDF.xlsx
+++ b/excels/lite/RegionDF.xlsx
@@ -397,7 +397,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>95.60416666666667</v>
+        <v>95.85714285714286</v>
       </c>
     </row>
     <row r="3">
@@ -407,7 +407,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>82.5</v>
+        <v>83.14285714285714</v>
       </c>
     </row>
     <row r="4">
@@ -417,7 +417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.77083333333333</v>
+        <v>16.97959183673469</v>
       </c>
     </row>
     <row r="5">
@@ -427,7 +427,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.04166666666667</v>
+        <v>15.16326530612245</v>
       </c>
     </row>
     <row r="6">
@@ -437,7 +437,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13.0625</v>
+        <v>13.12244897959184</v>
       </c>
     </row>
     <row r="7">
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.8125</v>
+        <v>10.97959183673469</v>
       </c>
     </row>
     <row r="8">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.833333333333334</v>
+        <v>9.918367346938776</v>
       </c>
     </row>
   </sheetData>

--- a/excels/lite/RegionDF.xlsx
+++ b/excels/lite/RegionDF.xlsx
@@ -397,7 +397,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>95.85714285714286</v>
+        <v>95.94642857142857</v>
       </c>
     </row>
     <row r="3">
@@ -407,7 +407,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>83.14285714285714</v>
+        <v>82.85714285714286</v>
       </c>
     </row>
     <row r="4">
@@ -417,7 +417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.97959183673469</v>
+        <v>17.14285714285714</v>
       </c>
     </row>
     <row r="5">
@@ -427,7 +427,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.16326530612245</v>
+        <v>15.07142857142857</v>
       </c>
     </row>
     <row r="6">
@@ -437,7 +437,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13.12244897959184</v>
+        <v>13.19642857142857</v>
       </c>
     </row>
     <row r="7">
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.97959183673469</v>
+        <v>10.91071428571429</v>
       </c>
     </row>
     <row r="8">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.918367346938776</v>
+        <v>9.946428571428571</v>
       </c>
     </row>
   </sheetData>

--- a/excels/lite/RegionDF.xlsx
+++ b/excels/lite/RegionDF.xlsx
@@ -397,7 +397,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>95.94642857142857</v>
+        <v>96.36206896551724</v>
       </c>
     </row>
     <row r="3">
@@ -407,7 +407,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>82.85714285714286</v>
+        <v>83.98275862068965</v>
       </c>
     </row>
     <row r="4">
@@ -417,7 +417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17.14285714285714</v>
+        <v>17.46551724137931</v>
       </c>
     </row>
     <row r="5">
@@ -427,7 +427,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.07142857142857</v>
+        <v>15.25862068965517</v>
       </c>
     </row>
     <row r="6">
@@ -437,7 +437,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13.19642857142857</v>
+        <v>13.27586206896552</v>
       </c>
     </row>
     <row r="7">
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.91071428571429</v>
+        <v>11.18965517241379</v>
       </c>
     </row>
     <row r="8">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.946428571428571</v>
+        <v>10.05172413793103</v>
       </c>
     </row>
   </sheetData>

--- a/excels/lite/RegionDF.xlsx
+++ b/excels/lite/RegionDF.xlsx
@@ -397,7 +397,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>96.36206896551724</v>
+        <v>96.37931034482759</v>
       </c>
     </row>
     <row r="3">
@@ -407,7 +407,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>83.98275862068965</v>
+        <v>83.96551724137932</v>
       </c>
     </row>
     <row r="4">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.05172413793103</v>
+        <v>10.08620689655172</v>
       </c>
     </row>
   </sheetData>

--- a/excels/lite/RegionDF.xlsx
+++ b/excels/lite/RegionDF.xlsx
@@ -397,7 +397,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>96.37931034482759</v>
+        <v>96.55932203389831</v>
       </c>
     </row>
     <row r="3">
@@ -407,7 +407,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>83.96551724137932</v>
+        <v>84.49152542372882</v>
       </c>
     </row>
     <row r="4">
@@ -417,7 +417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17.46551724137931</v>
+        <v>17.61016949152542</v>
       </c>
     </row>
     <row r="5">
@@ -427,7 +427,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.25862068965517</v>
+        <v>15.35593220338983</v>
       </c>
     </row>
     <row r="6">
@@ -437,7 +437,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13.27586206896552</v>
+        <v>13.25423728813559</v>
       </c>
     </row>
     <row r="7">
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.18965517241379</v>
+        <v>11.32203389830508</v>
       </c>
     </row>
     <row r="8">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.08620689655172</v>
+        <v>10.15254237288136</v>
       </c>
     </row>
   </sheetData>

--- a/excels/lite/RegionDF.xlsx
+++ b/excels/lite/RegionDF.xlsx
@@ -1,41 +1,82 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giorgosandreou/Documents/Visual Studio/thesis-old/excels/lite/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9660" windowWidth="16095" xWindow="240" yWindow="15"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="21800" windowHeight="10940"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>Regions</t>
+  </si>
+  <si>
+    <t>Fans</t>
+  </si>
+  <si>
+    <t>Attica (region), Greece</t>
+  </si>
+  <si>
+    <t>Central Macedonia, Greece</t>
+  </si>
+  <si>
+    <t>Thessaly, Greece</t>
+  </si>
+  <si>
+    <t>Western Greece, Greece</t>
+  </si>
+  <si>
+    <t>Eastern Macedonia and Thrace, Greece</t>
+  </si>
+  <si>
+    <t>Central Greece (region), Greece</t>
+  </si>
+  <si>
+    <t>Crete, Greece</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -66,18 +107,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -365,102 +412,83 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Regions</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Fans</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Central Macedonia, Greece</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>96.55932203389831</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Attica (region), Greece</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>84.49152542372882</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Thessaly, Greece</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>17.61016949152542</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Western Greece, Greece</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>15.35593220338983</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Epirus (region), Greece</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>13.25423728813559</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Eastern Macedonia and Thrace, Greece</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>11.32203389830508</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Crete, Greece</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>10.15254237288136</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/excels/lite/RegionDF.xlsx
+++ b/excels/lite/RegionDF.xlsx
@@ -1,82 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giorgosandreou/Documents/Visual Studio/thesis-old/excels/lite/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="21800" windowHeight="10940"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9660" windowWidth="16095" xWindow="240" yWindow="15"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Regions</t>
-  </si>
-  <si>
-    <t>Fans</t>
-  </si>
-  <si>
-    <t>Attica (region), Greece</t>
-  </si>
-  <si>
-    <t>Central Macedonia, Greece</t>
-  </si>
-  <si>
-    <t>Thessaly, Greece</t>
-  </si>
-  <si>
-    <t>Western Greece, Greece</t>
-  </si>
-  <si>
-    <t>Eastern Macedonia and Thrace, Greece</t>
-  </si>
-  <si>
-    <t>Central Greece (region), Greece</t>
-  </si>
-  <si>
-    <t>Crete, Greece</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -107,24 +66,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -412,83 +365,102 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17.1640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Regions</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Fans</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Attica (region), Greece</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Central Macedonia, Greece</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Thessaly, Greece</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Western Greece, Greece</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Eastern Macedonia and Thrace, Greece</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Central Greece (region), Greece</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Epirus (region), Greece</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/excels/lite/RegionDF.xlsx
+++ b/excels/lite/RegionDF.xlsx
@@ -397,7 +397,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>114</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3">
@@ -407,7 +407,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4">
@@ -427,7 +427,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
@@ -437,7 +437,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7">
@@ -447,13 +447,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Epirus (region), Greece</t>
+          <t>Crete, Greece</t>
         </is>
       </c>
       <c r="B8" t="n">

--- a/excels/lite/RegionDF.xlsx
+++ b/excels/lite/RegionDF.xlsx
@@ -397,7 +397,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3">
@@ -407,7 +407,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4">
@@ -433,17 +433,17 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Eastern Macedonia and Thrace, Greece</t>
+          <t>Central Greece (region), Greece</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Central Greece (region), Greece</t>
+          <t>Eastern Macedonia and Thrace, Greece</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -453,11 +453,11 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Crete, Greece</t>
+          <t>Epirus (region), Greece</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/excels/lite/RegionDF.xlsx
+++ b/excels/lite/RegionDF.xlsx
@@ -397,7 +397,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>148</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3">
@@ -407,7 +407,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4">
@@ -427,7 +427,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
@@ -453,11 +453,11 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Epirus (region), Greece</t>
+          <t>Peloponnese (region), Greece</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/excels/lite/RegionDF.xlsx
+++ b/excels/lite/RegionDF.xlsx
@@ -397,7 +397,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>165</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3">
@@ -407,7 +407,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4">
@@ -417,27 +417,27 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Western Greece, Greece</t>
+          <t>Central Greece (region), Greece</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Central Greece (region), Greece</t>
+          <t>Western Greece, Greece</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">

--- a/excels/lite/RegionDF.xlsx
+++ b/excels/lite/RegionDF.xlsx
@@ -397,7 +397,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3">
@@ -407,37 +407,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Thessaly, Greece</t>
+          <t>Central Greece (region), Greece</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Central Greece (region), Greece</t>
+          <t>Western Greece, Greece</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Western Greece, Greece</t>
+          <t>Thessaly, Greece</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
@@ -453,7 +453,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Peloponnese (region), Greece</t>
+          <t>Limassol District, Cyprus</t>
         </is>
       </c>
       <c r="B8" t="n">

--- a/excels/lite/RegionDF.xlsx
+++ b/excels/lite/RegionDF.xlsx
@@ -397,7 +397,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3">
@@ -407,17 +407,17 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Central Greece (region), Greece</t>
+          <t>Thessaly, Greece</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
@@ -427,13 +427,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Thessaly, Greece</t>
+          <t>Central Greece (region), Greece</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
